--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/ManualSkillCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/ManualSkillCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11E3FC-C9A5-495B-A419-45BFF808E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAE561-A74E-4137-975B-117C74CDF078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主动技能表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -277,6 +266,24 @@
   </si>
   <si>
     <t>SelectObject_SkillShow_Camera_OtherArea</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_PurifyWater</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Enhance</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Silence</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_GoblinSummon</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Hellfire</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Blackhole</t>
   </si>
 </sst>
 </file>
@@ -709,21 +716,21 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9:E17"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +752,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -758,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,7 +774,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -784,7 +791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -797,7 +804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -810,7 +817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -823,7 +830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -839,7 +846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -855,7 +862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
@@ -871,7 +878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -887,7 +894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
@@ -903,7 +910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
@@ -919,7 +926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
@@ -935,7 +942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
@@ -951,7 +958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
@@ -967,7 +974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -978,7 +985,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -989,7 +996,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1007,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1018,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1063,11 +1070,11 @@
       <c r="D27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1077,11 +1084,11 @@
       <c r="D28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1091,11 +1098,11 @@
       <c r="D29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -1105,11 +1112,11 @@
       <c r="D30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -1119,11 +1126,11 @@
       <c r="D31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>49</v>
       </c>
@@ -1133,8 +1140,8 @@
       <c r="D32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>61</v>
+      <c r="E32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
